--- a/02_MasterWifoMannheim/99_Backup/Course152.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course152.xlsx
@@ -1,133 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD32051265F592811596680B24C8DF95F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6ABE6FC-536E-4A89-A2A4-4D90C97A1A95}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 501 Logistics Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>Producing goods individually on the spot, right when and where customers demand them is not economically and technically feasible, in general. The logistics function bridges the temporal and geographical gaps between production and consumption. This involves transportation and storage, but also sorting and allocation processes. information and communication technology have been transforming the underlying economics. recognized as a key factor. This course aims to provide insight into key decisions regarding the design and management of logistics activities. To this end, it introduces quantitative models that link managerial levers to logistics performance, thereby allowing appropriate trade-offs. transportation planning.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>This course helps students understand how to align logistics decisions with an underlying business strategy. tasks. The course enables them to analyze logistics decisions by means of quantitative techniques and to make the right trade-offs between different performance criteria.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on registration</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (90 min.)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Moritz Fleischmann</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -142,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -466,137 +420,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 501 Logistics Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Producing goods individually on the spot, right when and where customers demand them is not economically and technically feasible, in general. The logistics function bridges the temporal and geographical gaps between production and consumption. This involves transportation and storage, but also sorting and allocation processes. information and communication technology have been transforming the underlying economics. recognized as a key factor. This course aims to provide insight into key decisions regarding the design and management of logistics activities. To this end, it introduces quantitative models that link managerial levers to logistics performance, thereby allowing appropriate trade-offs. transportation planning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>This course helps students understand how to align logistics decisions with an underlying business strategy. tasks. The course enables them to analyze logistics decisions by means of quantitative techniques and to make the right trade-offs between different performance criteria.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM), Mathematical and Statistical Foundations (MSF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6 Exercise class 2 2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (90 min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Moritz Fleischmann</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Bus. Math., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
